--- a/Team-Data/2012-13/3-7-2012-13.xlsx
+++ b/Team-Data/2012-13/3-7-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -795,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1144,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="n">
         <v>4</v>
@@ -1872,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1899,13 +1966,13 @@
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.651</v>
+        <v>0.645</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1958,10 +2025,10 @@
         <v>40.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L9" t="n">
         <v>6.5</v>
@@ -1970,28 +2037,28 @@
         <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S9" t="n">
         <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U9" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
@@ -2006,31 +2073,31 @@
         <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2048,19 +2115,19 @@
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
         <v>11</v>
@@ -2069,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2615,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
         <v>44</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,10 +2935,10 @@
         <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.4</v>
@@ -2883,13 +2950,13 @@
         <v>0.357</v>
       </c>
       <c r="O14" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.707</v>
+        <v>0.706</v>
       </c>
       <c r="R14" t="n">
         <v>11.5</v>
@@ -2898,7 +2965,7 @@
         <v>30.2</v>
       </c>
       <c r="T14" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
@@ -2907,34 +2974,34 @@
         <v>14.9</v>
       </c>
       <c r="W14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="X14" t="n">
         <v>5.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="n">
         <v>4</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>5</v>
       </c>
       <c r="AG14" t="n">
         <v>4</v>
@@ -2943,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2964,7 +3031,7 @@
         <v>18</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2976,13 +3043,13 @@
         <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3362,7 @@
         <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3307,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -3334,7 +3401,7 @@
         <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
@@ -3367,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3874,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>24</v>
@@ -3886,7 +3953,7 @@
         <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
@@ -4068,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="n">
         <v>37</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>0.627</v>
+        <v>0.638</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4145,7 +4212,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
         <v>10.8</v>
@@ -4154,28 +4221,28 @@
         <v>29.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
         <v>16.5</v>
       </c>
       <c r="P21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R21" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
         <v>41.3</v>
       </c>
       <c r="U21" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V21" t="n">
         <v>12.1</v>
@@ -4187,7 +4254,7 @@
         <v>3.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z21" t="n">
         <v>19.3</v>
@@ -4196,13 +4263,13 @@
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4217,13 +4284,13 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO21" t="n">
         <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
@@ -4247,10 +4314,10 @@
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4271,7 +4338,7 @@
         <v>10</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -4306,40 +4373,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.738</v>
+        <v>0.733</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J22" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.482</v>
+        <v>0.483</v>
       </c>
       <c r="L22" t="n">
         <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
         <v>0.39</v>
       </c>
       <c r="O22" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="P22" t="n">
         <v>27.1</v>
@@ -4348,16 +4415,16 @@
         <v>0.832</v>
       </c>
       <c r="R22" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S22" t="n">
         <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
         <v>15.6</v>
@@ -4378,16 +4445,16 @@
         <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.8</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4399,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4429,10 +4496,10 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4617,7 +4684,7 @@
         <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4796,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -4975,7 +5042,7 @@
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO26" t="n">
         <v>20</v>
@@ -5166,7 +5233,7 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5673,13 +5740,13 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6134,7 @@
         <v>23</v>
       </c>
       <c r="AS31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-7-2012-13</t>
+          <t>2013-03-07</t>
         </is>
       </c>
     </row>
